--- a/event_entries/Sonoma Raceway entries.xlsx
+++ b/event_entries/Sonoma Raceway entries.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACI Motorsports </t>
+          <t>Heart of Racing Team</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Curt  Swearingin</t>
+          <t>Hannah Grisham</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Kay van Berlo</t>
+          <t>Rianna O’Meara-Hunt</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flying Lizard Motorsports</t>
+          <t>Heart of Racing Team</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Elias Sabo</t>
+          <t>Gray Newell</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Andy Lee</t>
+          <t>Ian James</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flying Lizard Motorsports</t>
+          <t>Heart of Racing Team</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,24 +577,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Elias Sabo</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Andy Lee</t>
-        </is>
-      </c>
+          <t>Gray Newell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Aston Martin Vantage AMR GT4</t>
@@ -604,12 +600,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zotz Racing/ CCDP Racing</t>
+          <t>TechSport Racing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,39 +615,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chris Ruppel</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Eric Zitza</t>
-        </is>
-      </c>
+          <t>Shaoyi Che</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Subaru BRZ (2022 - )</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RS1</t>
+          <t>TechSport Racing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +653,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Roland  Krainz</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Austin  Krain</t>
-        </is>
-      </c>
+          <t>Devin Anderson</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Subaru BRZ (2022 - )</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACI Motorsports</t>
+          <t>Crowdstrike by Riley</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,39 +691,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Francis Selldorff</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Andrew  Davis</t>
-        </is>
-      </c>
+          <t>George Kurtz</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TechSport Racing</t>
+          <t>OnlyFans Racing with P1 Groupe by MRS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +729,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>043</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Eric  Powell</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Colin Harrison</t>
-        </is>
-      </c>
+          <t>Alex Vogel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nissan Z GT4</t>
+          <t>Porsche 911 GT3-R (991.ii)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TechSport Racing</t>
+          <t>Zotz Racing/ CCDP Racing</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,7 +767,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -797,17 +777,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bryan Heitkotter</t>
+          <t>Chris Ruppel</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tyler  Stone</t>
+          <t>Eric Zitza</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nissan Z GT4</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
@@ -819,7 +799,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heart of Racing Team</t>
+          <t>Crowdstrike by Riley</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,39 +809,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gray Newell</t>
+          <t>George Kurtz</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ian James</t>
+          <t>Colin Braun</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heart of Racing Team</t>
+          <t xml:space="preserve">ACI Motorsports </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +851,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -881,29 +861,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hannah Grisham</t>
+          <t>Curt  Swearingin</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rianna O’Meara-Hunt</t>
+          <t>Kay van Berlo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JTR Motorsports Engineering</t>
+          <t>Auto Technic Racing</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,7 +893,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>253</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,29 +903,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Peter Atwater</t>
+          <t>Rob Walker</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Luca Mars</t>
+          <t>Satakal Khalsa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT4</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GMG Racing</t>
+          <t>ACI Motorsports</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,7 +935,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -965,12 +945,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kyle Washington</t>
+          <t>Francis Selldorff</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>James Sofronas</t>
+          <t>Andrew  Davis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -982,12 +962,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Conquest Racing / JMF Motorsport</t>
+          <t>Rooster Hall Racing</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,7 +977,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1007,29 +987,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Michai Stephens</t>
+          <t>Colin  Garrett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Jesse Webb</t>
+          <t>Johan  Schwartz</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT4</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>TCX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conquest Racing</t>
+          <t>Rooster Hall Racing</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,39 +1019,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Custodio Toledo</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Paulo Carcasci</t>
-        </is>
-      </c>
+          <t>Colin  Garrett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT4</t>
+          <t>BMW M2 CS (Cup)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BimmerWorld</t>
+          <t>Lone Star Racing</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1081,39 +1057,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>011</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Charlie  Postins</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>James Clay</t>
-        </is>
-      </c>
+          <t>Marc Austin</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Skip Barber Racing School</t>
+          <t>COPELAND MOTORSPORTS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1123,7 +1095,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1133,12 +1105,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Matt Forbush</t>
+          <t>Tyler Maxson</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carter  Fartuch</t>
+          <t>Tyler Gonzalez</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,12 +1122,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Skip Barber Racing School</t>
+          <t>Genracer / Ricca Autosport</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,39 +1137,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Matt  Forbush</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Carter Fartuch</t>
-        </is>
-      </c>
+          <t>Jeff Ricca</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Toyota Gazoo Racing GR Supra GT4</t>
+          <t>Hyundai Elantra N TC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Carrus Callas Raceteam</t>
+          <t>Archangel Motorsports</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,27 +1175,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>#39</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nicholas Shanny</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Terry Borcheller</t>
-        </is>
-      </c>
+          <t>Todd Coleman</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Toyota Gazoo Racing GR Supra GT4</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1203,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rooster Hall Racing</t>
+          <t>Archangel Motorsports</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1249,7 +1213,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>069</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,29 +1223,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Colin  Garrett</t>
+          <t>Todd Coleman</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Johan  Schwartz</t>
+          <t>TBA TBA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NOLASPORT</t>
+          <t>Conquest Racing / JMF Motorsport</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,7 +1255,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1301,17 +1265,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TBD TBD</t>
+          <t>Michai Stephens</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>tbd TBD</t>
+          <t>Jesse Webb</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Mercedes-AMG GT4</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1287,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chouest Povoledo Racing</t>
+          <t>van der Steur Racing</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,7 +1297,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>428</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1343,12 +1307,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Aaron Povoledo</t>
+          <t>Brady Behrman</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ross Chouest</t>
+          <t>Coby Shield</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1360,12 +1324,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Auto Technic Racing</t>
+          <t>BimmerWorld</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,7 +1339,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>82</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,12 +1349,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>John Dubets</t>
+          <t>James Walker Jr</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Zac Anderson</t>
+          <t>Tyler  McQuarrie</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1407,7 +1371,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NOLASPORT</t>
+          <t>BimmerWorld</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,7 +1381,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1427,29 +1391,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>David  Peterman</t>
+          <t>Charlie  Postins</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lee Carpentier</t>
+          <t>James Clay</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Black Swan Racing</t>
+          <t>ACI Motorsports</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,7 +1423,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1469,29 +1433,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tim Pappas</t>
+          <t>Richard  Edge</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Jeroen Bleekemolen</t>
+          <t>Matt Halcome</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>McLaren Artura GT4</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ACI Motorsports</t>
+          <t>Triarsi Competizione</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,39 +1465,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Richard  Edge</t>
+          <t>Justin  Wetherill</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Matt Halcome</t>
+          <t>Ryan Dalziel</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Ferrari 296 GT3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Smooge Racing</t>
+          <t>LA Honda World Racing</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,39 +1507,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Joey DaSilva</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Isabella Robusto</t>
-        </is>
-      </c>
+          <t>Spencer Bucknum</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Toyota Gazoo Racing GR Supra GT4</t>
+          <t>Honda Civic Si FE1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Smooge Racing</t>
+          <t>MINI JCW Team</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,39 +1545,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kevin Conway</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>John Geesbreght</t>
-        </is>
-      </c>
+          <t>Cristian Perocarpi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Toyota Gazoo Racing GR Supra GT4</t>
+          <t>Mini JCW Pro TC</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Archangel Motorsports</t>
+          <t>MINI JCW Team</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,39 +1583,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>069</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Todd Coleman</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>TBA TBA</t>
-        </is>
-      </c>
+          <t>Clayton Williams</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Mini JCW Pro TC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COPELAND MOTORSPORTS</t>
+          <t>MINI JCW Team</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,27 +1621,23 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tyler Maxson</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Tyler Gonzalez</t>
-        </is>
-      </c>
+          <t>Landon Lewis</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Toyota Gazoo Racing GR Supra GT4</t>
+          <t>Mini JCW (2019 - )</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1649,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">TR3 Racing </t>
+          <t>RENNtech Motorsports</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1711,7 +1659,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1721,17 +1669,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Paul Kiebler</t>
+          <t>Thomas Johnson</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Jon  Branam</t>
+          <t>Michael Auriemma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Mercedes-AMG GT4</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1691,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BimmerWorld</t>
+          <t xml:space="preserve">ACI Motorsports </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,39 +1701,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>James Walker Jr</t>
+          <t>Pedro Torres</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tyler  McQuarrie</t>
+          <t>Spenser Pumpelly</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Porsche 911 GT3-R (991.ii)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Pro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NOLASPORT</t>
+          <t>Conquest Racing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,39 +1743,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nelson  Calle</t>
+          <t>Manny Franco</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Juan  Martinez</t>
+          <t>Alessandro Balzan</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Ferrari 296 GT3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>STR38 Motorsports</t>
+          <t>Wright Motorsports</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,39 +1785,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Jon Miller</t>
+          <t>Charlie Luck</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chandler Hull</t>
+          <t>Jan  Heylen</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Porsche GT3 R 992</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RENNtech Motorsports</t>
+          <t>Wright Motorsports</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1879,39 +1827,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Thomas Johnson</t>
+          <t>Adam Adelson</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Michael Auriemma</t>
+          <t>Elliott  Skeer</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT4</t>
+          <t>Porsche 911 GT3-R (991.ii)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Random Vandals Racing</t>
+          <t>Wright Motorsports</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,39 +1869,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kevin Boehm</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Kenton Koch</t>
-        </is>
-      </c>
+          <t>Adam Adelson</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Porsche 911 GT3-R (991.ii)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>TCX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OGH / Valkyrie Velocity</t>
+          <t xml:space="preserve">AOA Racing </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,27 +1907,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rob Ferriol</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>TBD TBD</t>
-        </is>
-      </c>
+          <t>Kenny  Schmied</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>BMW M2 CS (Cup)</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1935,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>OGH/ Valkyrie Velocity</t>
+          <t>Smooge Racing</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2005,7 +1945,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2015,17 +1955,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chris Walsh</t>
+          <t>Kevin Conway</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dominic Starkweather</t>
+          <t>John Geesbreght</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Toyota Gazoo Racing GR Supra GT4</t>
         </is>
       </c>
     </row>
@@ -2037,7 +1977,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OGH/ Valkyrie Velocity</t>
+          <t>Smooge Racing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2047,7 +1987,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2057,29 +1997,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sean Gibbons</t>
+          <t>Joey DaSilva</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sam Owen</t>
+          <t>Isabella Robusto</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Toyota Gazoo Racing GR Supra GT4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Pro</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Random Vandals Racing</t>
+          <t>BimmerWorld</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2089,39 +2029,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Paul Sparta</t>
+          <t>Chandler  Hull</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Al Carter</t>
+          <t>Bill  Auberlen</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>BMW M4 GT3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rotek Racing</t>
+          <t>MINI JCW Team</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2131,39 +2071,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>099</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Robb Holland</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Alain Stad</t>
-        </is>
-      </c>
+          <t>P.J. Groenke</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Mini JCW (2019 - )</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Auto Technic Racing</t>
+          <t>CRP Racing</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,27 +2109,23 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rob Walker</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Satakal Khalsa</t>
-        </is>
-      </c>
+          <t>Jason Daskalos</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2137,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>van der Steur Racing</t>
+          <t>JTR Motorsports Engineering</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2215,7 +2147,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2225,29 +2157,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Brady Behrman</t>
+          <t>Peter Atwater</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Coby Shield</t>
+          <t>Luca Mars</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Mercedes-AMG GT4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>STR38 Motorsports</t>
+          <t>Carrus Callas Raceteam</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2257,39 +2189,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>#21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PGT4A</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Robert Mau</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Chris Allen</t>
-        </is>
-      </c>
+          <t>Nicholas  Shanny</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Toyota Gazoo Racing GR Supra GT4</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SP Motorsports</t>
+          <t>Carrus Callas Raceteam</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,7 +2227,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>#39</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,29 +2237,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Anderson Tanoto</t>
+          <t>Nicholas Shanny</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Jaden Conwright</t>
+          <t>Terry Borcheller</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>Toyota Gazoo Racing GR Supra GT4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hanley Motorsports</t>
+          <t>Black Swan Racing</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,7 +2269,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2351,29 +2279,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Tim Pappas</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Daniel Hanley</t>
+          <t>Jeroen Bleekemolen</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Toyota Gazoo Racing GR Supra GT4</t>
+          <t>McLaren Artura GT4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Flying Lizard Motorsports</t>
+          <t>GenRacer</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,35 +2311,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>780</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jason Bell</t>
+          <t>SALLY MCNULTY</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Hyundai Veloster N DCT TC (2021 -)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Flying Lizard Motorsports</t>
+          <t>GMG Racing</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2421,7 +2349,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2431,25 +2359,25 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jason Bell</t>
+          <t>Kyle Washington</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Porsche 911 GT3-R (991.ii)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Crowdstrike by Riley</t>
+          <t>GMG Racing</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2459,35 +2387,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>George Kurtz</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Kyle Washington</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>James Sofronas</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Blackdog Speed Shop</t>
+          <t>Aston Martin Racing - TRG</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2497,35 +2429,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>007</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tony Gaples</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Derek DeBoer</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Ross Gunn</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Chevrolet Camaro GT4.R</t>
+          <t>Aston Martin Vantage AMR GT3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DXDT Racing</t>
+          <t>NOLASPORT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2535,35 +2471,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Scott Smithson</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>David  Peterman</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Lee Carpentier</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Flying Lizard Motorsports</t>
+          <t>OGH/ Valkyrie Velocity</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2573,35 +2513,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>97</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Elias Sabo</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Sean Gibbons</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Sam Owen</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TR3 Racing</t>
+          <t>OGH/ Valkyrie Velocity</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2611,35 +2555,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ziad  Ghandour</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Chris Walsh</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Dominic Starkweather</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Mercedes-Benz SLS AMG GT3</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aston Martin Racing - TRG</t>
+          <t>LA Honda World Racing</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2649,35 +2597,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tim Savage</t>
+          <t>Mario Biundo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Honda Civic Si (2017 – )</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lone Star Racing</t>
+          <t>Auto Technic Racing</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2687,7 +2635,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2697,25 +2645,25 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Marc Austin</t>
+          <t>Rob Walker</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Auto Technic Racing</t>
+          <t>OGH / Valkyrie Velocity</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2725,35 +2673,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rob Walker</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Rob Ferriol</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>TBD TBD</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>BMW M4 GT4</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>TCX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Carrus Callas Raceteam</t>
+          <t>LA Honda World Racing</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2763,35 +2715,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>#21</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nicholas  Shanny</t>
+          <t>Kyle Loh</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Toyota Gazoo Racing GR Supra GT4</t>
+          <t>Honda Civic Type-R TCX</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Heart of Racing Team</t>
+          <t>Random Vandals Racing</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2801,35 +2753,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gray Newell</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>Kevin Boehm</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Kenton Koch</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CRP Racing</t>
+          <t>Skip Barber Racing School</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2839,35 +2795,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Jason Daskalos</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Matt Forbush</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Carter  Fartuch</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Toyota Gazoo Racing GR Supra GT4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GMG Racing</t>
+          <t>Skip Barber Racing School</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2877,35 +2837,35 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kyle Washington</t>
+          <t>Cooper  Broll</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Porsche 911 GT3-R (991.ii)</t>
+          <t>Honda Civic Si FE1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CRP Racing</t>
+          <t>Skip Barber Racing School</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2915,35 +2875,35 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Todd Treffert</t>
+          <t>Celso Neto</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Honda Civic Type-R (2017 - )</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>OnlyFans Racing with P1 Groupe by MRS</t>
+          <t>Chouest Povoledo Racing</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2953,35 +2913,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>043</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Alex Vogel</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Aaron Povoledo</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Ross Chouest</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Porsche 911 GT3-R (991.ii)</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RealTime Racing</t>
+          <t>Chouest Povoledo Racing</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2991,7 +2955,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3001,25 +2965,25 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Andy Pilgrim</t>
+          <t>Ross Chouest</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Chouest Povoledo Racing</t>
+          <t>Esses Racing with mercedes-Benz of Austin</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3029,35 +2993,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ross Chouest</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Will  Hardeman</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Adam Carroll</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>TCX</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Archangel Motorsports</t>
+          <t>VGRT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3067,35 +3035,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Todd Coleman</t>
+          <t>Daijiro Yoshihara</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT4</t>
+          <t>Honda Civic Type-R TCX</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MISHUMOTORS</t>
+          <t>Blackdog Speed Shop</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3105,7 +3073,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3115,25 +3083,25 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mirco Schultis</t>
+          <t>Tony Gaples</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Callaway Corvette Z06R GT3</t>
+          <t>Chevrolet Camaro GT4.R</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">TR3 Racing </t>
+          <t>VGRT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3143,35 +3111,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Paul Kiebler</t>
+          <t>Ruben Iglesias Jr.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aston Martin V12 Vantage GT3</t>
+          <t>Honda Civic Si FE1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DXDT Racing</t>
+          <t>VGRT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3181,35 +3149,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Jeff  Burton</t>
+          <t>Michael Hurczyn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Honda Civic Type-R (2017 - )</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rotek Racing</t>
+          <t>NOLASPORT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3219,20 +3187,24 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>098</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Chris Alliegro</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>TBD TBD</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>tbd TBD</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>Porsche 718 Cayman GT4 RS Clubsport</t>
@@ -3242,12 +3214,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GT4</t>
+          <t>TCX</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Rotek Racing</t>
+          <t>Fast Track Racing</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3257,35 +3229,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>099</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Robb Holland</t>
+          <t>Adam Gleason</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
+          <t>BMW M2 CS (Cup)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TKO Motorsports</t>
+          <t>MINI JCW Team</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3295,23 +3267,23 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Memo Gidley</t>
+          <t>Carlos Tesler-Mabe</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Mercedes-Benz SLS AMG GT3</t>
+          <t>Mini JCW (2019 - )</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3295,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TKO Motorsports</t>
+          <t>RealTime Racing</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3333,7 +3305,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3343,7 +3315,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Memo Gidley</t>
+          <t>Andy Pilgrim</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3361,7 +3333,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TKO Motorsports</t>
+          <t>RealTime Racing</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3371,7 +3343,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>427</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3381,25 +3353,25 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dave Traitel</t>
+          <t>Anthony Bartone</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bentley Continental GT3 2018</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wright Motorsports</t>
+          <t>SP Motorsports</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3409,35 +3381,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>899</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Adam Adelson</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>Anderson Tanoto</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Jaden Conwright</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Porsche 911 GT3-R (991.ii)</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Pro</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RealTime Racing</t>
+          <t>Racers Edge Motorsports</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3447,35 +3423,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Anthony Bartone</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>Ashton Harrison</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Mario Farnbacher</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Acura NSX GT3 EVO22</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Pro</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Flying Lizard Motorsports</t>
+          <t>MDK Motorsports</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3485,35 +3465,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Andy Wilzoch</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>Trenton Estep</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Seth Lucas</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Porsche 911 GT3 R (991)</t>
+          <t>Porsche GT3 R 992</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GT3</t>
+          <t>Pro</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Flying Lizard Motorsports</t>
+          <t>RS1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3523,35 +3507,39 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GTAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Andy Wilzoch</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>Eric  Filgueiras</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Stevan  McAleer</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Porsche 911 GT3 R (991)</t>
+          <t>Porsche GT3 R 992</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LA Honda World Racing</t>
+          <t xml:space="preserve">TR3 Racing </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3561,35 +3549,39 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Spencer Bucknum</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>Paul Kiebler</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Jon  Branam</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Honda Civic Si FE1</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LA Honda World Racing</t>
+          <t xml:space="preserve">TR3 Racing </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3599,35 +3591,35 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mario Biundo</t>
+          <t>Paul Kiebler</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Honda Civic Si (2017 – )</t>
+          <t>Aston Martin V12 Vantage GT3</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Skip Barber Racing School</t>
+          <t>RS1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3637,35 +3629,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Celso Neto</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>Roland  Krainz</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Austin  Krain</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R (2017 - )</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Skip Barber Racing School</t>
+          <t>TR3 Racing</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3675,35 +3671,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Celso Neto</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>Ziad  Ghandour</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Daniel Morad</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R (2017 - )</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VGRT</t>
+          <t>Hanley Motorsports</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3713,35 +3713,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>999</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Michael Hurczyn</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>Parker Thompson</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Daniel Hanley</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R (2017 - )</t>
+          <t>Toyota Gazoo Racing GR Supra GT4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TCX</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DRS</t>
+          <t>Rigid Speed Company</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3751,7 +3755,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3761,13 +3765,13 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kris Valdez</t>
+          <t>Joseph Catania</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R (2017 - )</t>
+          <t>BMW M2 CS (Cup)</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3783,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">AOA Racing </t>
+          <t>Rigid Speed Company</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3789,7 +3793,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3799,7 +3803,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kenny  Schmied</t>
+          <t>Lucas Catania</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3812,12 +3816,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Skip Barber Racing School</t>
+          <t>Rotek Racing</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3827,35 +3831,35 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>099</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cooper  Broll</t>
+          <t>Robb Holland</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Honda Civic Si FE1</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TCX</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fast Track Racing</t>
+          <t>Rotek Racing</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3865,35 +3869,35 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>098</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Adam Gleason</t>
+          <t>Chris Alliegro</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>BMW M2 CS (Cup)</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TechSport Racing</t>
+          <t>Rotek Racing</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3903,35 +3907,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>099</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Devin Anderson</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>Robb Holland</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Alain Stad</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Subaru BRZ (2022 - )</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TechSport Racing</t>
+          <t>ST Racing</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3941,35 +3949,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Shaoyi Che</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>Samantha Tan</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>John Edwards</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Subaru BRZ (2022 - )</t>
+          <t>BMW M4 GT3</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TCX</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rigid Speed Company</t>
+          <t>STR38 Motorsports</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3979,23 +3991,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>438</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Joseph Catania</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>Robert Mau</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Chris Allen</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>BMW M2 CS (Cup)</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4023,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rigid Speed Company</t>
+          <t>Ian Lacy Racing</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4017,7 +4033,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4027,25 +4043,25 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lucas Catania</t>
+          <t>Christopher DeFreitas</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>BMW M2 CS (Cup)</t>
+          <t>Honda Civic Type-R TCX</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MINI JCW Team</t>
+          <t>Conquest Racing</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4055,35 +4071,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cristian Perocarpi</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+          <t>Custodio Toledo</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Paulo Carcasci</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Mini JCW Pro TC</t>
+          <t>Mercedes-AMG GT4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Skip Barber Racing School</t>
+          <t>DXDT Racing</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4093,35 +4113,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>08</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ken  Fukuda</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+          <t>Scott Smithson</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Bryan Sellers</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R (2017 - )</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TCX</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Rooster Hall Racing</t>
+          <t>DXDT Racing</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4131,35 +4155,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTWCA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Colin  Garrett</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>Jeff Burton</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Corey Lewis</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>BMW M2 CS (Cup)</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MINI JCW Team</t>
+          <t>DXDT Racing</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4169,35 +4197,35 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>08</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Clayton Williams</t>
+          <t>Scott Smithson</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Mini JCW Pro TC</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MINI JCW Team</t>
+          <t>DXDT Racing</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4207,35 +4235,35 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>P.J. Groenke</t>
+          <t>Jeff  Burton</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Mini JCW (2019 - )</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MINI JCW Team</t>
+          <t>MISHUMOTORS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4245,35 +4273,35 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Landon Lewis</t>
+          <t>Mirco Schultis</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Mini JCW (2019 - )</t>
+          <t>Callaway Corvette Z06R GT3</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MINI JCW Team</t>
+          <t>TechSport Racing</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4283,35 +4311,39 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Carlos Tesler-Mabe</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t>Eric  Powell</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Colin Harrison</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Mini JCW (2019 - )</t>
+          <t>Nissan Z GT4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TCX</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LA Honda World Racing</t>
+          <t>TechSport Racing</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4321,35 +4353,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kyle Loh</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+          <t>Bryan Heitkotter</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Tyler  Stone</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R TCX</t>
+          <t>Nissan Z GT4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Skip Barber Racing School</t>
+          <t>TR3 Racing</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4359,35 +4395,35 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>William  Lambros</t>
+          <t>Ziad  Ghandour</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Honda Civic Si FE1</t>
+          <t>Mercedes-Benz SLS AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Genracer / Ricca Autosport</t>
+          <t>NOLASPORT</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4397,35 +4433,39 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Jeff Ricca</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>Nelson  Calle</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Juan  Martinez</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hyundai Elantra N TC</t>
+          <t>Porsche 718 Cayman GT4 RS Clubsport</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>VGRT</t>
+          <t>Random Vandals Racing</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4435,35 +4475,39 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ruben Iglesias Jr.</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+          <t>Paul Sparta</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Al Carter</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Honda Civic Si FE1</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TCX</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ian Lacy Racing</t>
+          <t>TKO Motorsports</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4473,35 +4517,35 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Christopher DeFreitas</t>
+          <t>Memo Gidley</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R TCX</t>
+          <t>Mercedes-Benz SLS AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TCX</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>VGRT</t>
+          <t>Flying Lizard Motorsports</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4511,35 +4555,35 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Daijiro Yoshihara</t>
+          <t>Jason Bell</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Honda Civic Type-R TCX</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GenRacer</t>
+          <t>TKO Motorsports</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4549,35 +4593,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TCAM</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>SALLY MCNULTY</t>
+          <t>Dave Traitel</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Hyundai Veloster N DCT TC (2021 -)</t>
+          <t>Bentley Continental GT3 2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Crowdstrike by Riley</t>
+          <t>Flying Lizard Motorsports</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4587,39 +4631,35 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>460</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>George Kurtz</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Colin Braun</t>
-        </is>
-      </c>
+          <t>Andy Wilzoch</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Porsche 911 GT3 R (991)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Aston Martin Racing - TRG</t>
+          <t>Flying Lizard Motorsports</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4629,27 +4669,23 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Derek DeBoer</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Ross Gunn</t>
-        </is>
-      </c>
+          <t>Elias Sabo</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aston Martin Vantage AMR GT3</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4697,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DXDT Racing</t>
+          <t>Flying Lizard Motorsports</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4671,27 +4707,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Scott Smithson</t>
+          <t>Elias Sabo</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Bryan Sellers</t>
+          <t>Andy Lee</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4739,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TR3 Racing</t>
+          <t>GMG Racing</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4713,7 +4749,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4723,29 +4759,29 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ziad  Ghandour</t>
+          <t>James Sofronas</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Daniel Morad</t>
+          <t>Tom  Dyer</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Lamborghini	Huracan GT3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GMG Racing</t>
+          <t>CRP Racing</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4755,39 +4791,35 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>James Sofronas</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Tom  Dyer</t>
-        </is>
-      </c>
+          <t>Todd Treffert</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Lamborghini	Huracan GT3</t>
+          <t>Mercedes-AMG GT3</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACI Motorsports </t>
+          <t>DRS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4797,39 +4829,35 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Pedro Torres</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Spenser Pumpelly</t>
-        </is>
-      </c>
+          <t>Kris Valdez</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Porsche 911 GT3-R (991.ii)</t>
+          <t>Honda Civic Type-R (2017 - )</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Esses Racing with mercedes-Benz of Austin</t>
+          <t>Skip Barber Racing School</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4839,39 +4867,35 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Will  Hardeman</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Adam Carroll</t>
-        </is>
-      </c>
+          <t>William  Lambros</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Mercedes-AMG GT3</t>
+          <t>Honda Civic Si FE1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pro</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Conquest Racing</t>
+          <t>Skip Barber Racing School</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4881,39 +4905,39 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Manny Franco</t>
+          <t>Matt  Forbush</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Alessandro Balzan</t>
+          <t>Carter Fartuch</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Ferrari 296 GT3</t>
+          <t>Toyota Gazoo Racing GR Supra GT4</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Pro</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RS1</t>
+          <t>Skip Barber Racing School</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4923,39 +4947,35 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Eric  Filgueiras</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Stevan  McAleer</t>
-        </is>
-      </c>
+          <t>Ken  Fukuda</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Porsche GT3 R 992</t>
+          <t>Honda Civic Type-R (2017 - )</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Triarsi Competizione</t>
+          <t>STR38 Motorsports</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4965,39 +4985,39 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Justin  Wetherill</t>
+          <t>Jon Miller</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Ryan Dalziel</t>
+          <t>Chandler Hull</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Ferrari 296 GT3</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ST Racing</t>
+          <t>Auto Technic Racing</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5007,39 +5027,39 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Samantha Tan</t>
+          <t>John Dubets</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>John Edwards</t>
+          <t>Zac Anderson</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>BMW M4 GT3</t>
+          <t>BMW M4 GT4</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Wright Motorsports</t>
+          <t>Aston Martin Racing - TRG</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5049,39 +5069,35 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>009</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Charlie Luck</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Jan  Heylen</t>
-        </is>
-      </c>
+          <t>Tim Savage</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Porsche GT3 R 992</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pro</t>
+          <t>GT4</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MDK Motorsports</t>
+          <t>Flying Lizard Motorsports</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5091,39 +5107,35 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Trenton Estep</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Seth Lucas</t>
-        </is>
-      </c>
+          <t>Jason Bell</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Porsche GT3 R 992</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DXDT Racing</t>
+          <t>TKO Motorsports</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5133,24 +5145,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Jeff Burton</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Corey Lewis</t>
-        </is>
-      </c>
+          <t>Memo Gidley</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>Mercedes-AMG GT3</t>
@@ -5160,12 +5168,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Pro</t>
+          <t>GT3</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Racers Edge Motorsports</t>
+          <t>Flying Lizard Motorsports</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5175,39 +5183,35 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>460</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>GTAM</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Ashton Harrison</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Mario Farnbacher</t>
-        </is>
-      </c>
+          <t>Andy Wilzoch</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Acura NSX GT3 EVO22</t>
+          <t>Porsche 911 GT3 R (991)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Pro</t>
+          <t>Pro - Am</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BimmerWorld</t>
+          <t>Flying Lizard Motorsports</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5217,39 +5221,39 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>PGT4A</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Chandler  Hull</t>
+          <t>Elias Sabo</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Bill  Auberlen</t>
+          <t>Andy Lee</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>BMW M4 GT3</t>
+          <t>Aston Martin Vantage AMR GT4</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pro - Am</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Wright Motorsports</t>
+          <t>Skip Barber Racing School</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5259,27 +5263,23 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GTWCA</t>
+          <t>TCAM</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Adam Adelson</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Elliott  Skeer</t>
-        </is>
-      </c>
+          <t>Celso Neto</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Porsche 911 GT3-R (991.ii)</t>
+          <t>Honda Civic Type-R (2017 - )</t>
         </is>
       </c>
     </row>
